--- a/835/TestCase835.xlsx
+++ b/835/TestCase835.xlsx
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>VERSION</t>
   </si>
@@ -513,12 +513,30 @@
     <t>-Gửi thnh toán không thành công
 - Gửi thanh toán không thành công.</t>
   </si>
+  <si>
+    <t>16/09/2020</t>
+  </si>
+  <si>
+    <t>16/09/2021</t>
+  </si>
+  <si>
+    <t>16/09/2022</t>
+  </si>
+  <si>
+    <t>1. エビデンス 2</t>
+  </si>
+  <si>
+    <t>1. エビデンス 3</t>
+  </si>
+  <si>
+    <t>1. エビデンス 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,13 +574,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -866,16 +877,16 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -894,46 +905,46 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -942,72 +953,249 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1018,18 +1206,36 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1062,210 +1268,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4539,8 +4541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BA9" sqref="BA9:BH9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="BR14" sqref="BR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="10.8"/>
@@ -4553,287 +4555,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="61" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="62" t="s">
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="64" t="s">
+      <c r="AK1" s="128"/>
+      <c r="AL1" s="128"/>
+      <c r="AM1" s="128"/>
+      <c r="AN1" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="64" t="s">
+      <c r="AO1" s="127"/>
+      <c r="AP1" s="128"/>
+      <c r="AQ1" s="128"/>
+      <c r="AR1" s="128"/>
+      <c r="AS1" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="47" t="s">
+      <c r="AT1" s="128"/>
+      <c r="AU1" s="128"/>
+      <c r="AV1" s="128"/>
+      <c r="AW1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="108"/>
+      <c r="BA1" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
+      <c r="BB1" s="118"/>
+      <c r="BC1" s="118"/>
+      <c r="BD1" s="118"/>
+      <c r="BE1" s="118"/>
+      <c r="BF1" s="118"/>
+      <c r="BG1" s="118"/>
+      <c r="BH1" s="118"/>
       <c r="BI1" s="7"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="57" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59">
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="124">
         <f>COUNTIF($AR:$AR,"N/A")</f>
         <v>1</v>
       </c>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="59">
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="124">
         <f>COUNTIF($AR:$AR,"NG")</f>
         <v>1</v>
       </c>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="47" t="s">
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="60" t="s">
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="108"/>
+      <c r="BA2" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
+      <c r="BB2" s="118"/>
+      <c r="BC2" s="118"/>
+      <c r="BD2" s="118"/>
+      <c r="BE2" s="118"/>
+      <c r="BF2" s="118"/>
+      <c r="BG2" s="118"/>
+      <c r="BH2" s="118"/>
       <c r="BI2" s="7"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="47" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="67"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="110"/>
+      <c r="AV3" s="111"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="110"/>
+      <c r="BD3" s="110"/>
+      <c r="BE3" s="110"/>
+      <c r="BF3" s="110"/>
+      <c r="BG3" s="110"/>
+      <c r="BH3" s="111"/>
       <c r="BI3" s="7"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="51" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="51" t="s">
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="69"/>
-      <c r="BF4" s="69"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="70"/>
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="115"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116"/>
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="116"/>
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="117"/>
     </row>
     <row r="5" spans="1:61" s="2" customFormat="1">
       <c r="A5" s="6"/>
@@ -4899,724 +4901,766 @@
       <c r="BI5" s="6"/>
     </row>
     <row r="6" spans="1:61" ht="14.4">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="79" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="79" t="s">
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="80"/>
-      <c r="AK6" s="80"/>
-      <c r="AL6" s="80"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="79" t="s">
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="80"/>
-      <c r="AP6" s="80"/>
-      <c r="AQ6" s="81"/>
-      <c r="AR6" s="79" t="s">
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="AS6" s="80"/>
-      <c r="AT6" s="81"/>
-      <c r="AU6" s="79" t="s">
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="AV6" s="80"/>
-      <c r="AW6" s="81"/>
-      <c r="AX6" s="79" t="s">
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="80"/>
-      <c r="AZ6" s="81"/>
-      <c r="BA6" s="85" t="s">
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="BB6" s="85"/>
-      <c r="BC6" s="85"/>
-      <c r="BD6" s="85"/>
-      <c r="BE6" s="85"/>
-      <c r="BF6" s="85"/>
-      <c r="BG6" s="85"/>
-      <c r="BH6" s="85"/>
+      <c r="BB6" s="102"/>
+      <c r="BC6" s="102"/>
+      <c r="BD6" s="102"/>
+      <c r="BE6" s="102"/>
+      <c r="BF6" s="102"/>
+      <c r="BG6" s="102"/>
+      <c r="BH6" s="102"/>
       <c r="BI6" s="8"/>
     </row>
     <row r="7" spans="1:61" s="3" customFormat="1" ht="14.4">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="73" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75" t="s">
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="83"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="83"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="84"/>
-      <c r="AX7" s="82"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="85"/>
-      <c r="BC7" s="85"/>
-      <c r="BD7" s="85"/>
-      <c r="BE7" s="85"/>
-      <c r="BF7" s="85"/>
-      <c r="BG7" s="85"/>
-      <c r="BH7" s="85"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="92"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="93"/>
+      <c r="BA7" s="102"/>
+      <c r="BB7" s="102"/>
+      <c r="BC7" s="102"/>
+      <c r="BD7" s="102"/>
+      <c r="BE7" s="102"/>
+      <c r="BF7" s="102"/>
+      <c r="BG7" s="102"/>
+      <c r="BH7" s="102"/>
       <c r="BI7" s="9"/>
     </row>
     <row r="8" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A8" s="109">
+      <c r="A8" s="59">
         <v>1</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="119" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="124" t="s">
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120"/>
-      <c r="AC8" s="126" t="s">
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="120"/>
-      <c r="AH8" s="120"/>
-      <c r="AI8" s="120"/>
-      <c r="AJ8" s="120"/>
-      <c r="AK8" s="120"/>
-      <c r="AL8" s="120"/>
-      <c r="AM8" s="121"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="86" t="s">
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="86" t="s">
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="88"/>
-      <c r="BA8" s="76"/>
-      <c r="BB8" s="77"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="77"/>
-      <c r="BH8" s="78"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="95"/>
+      <c r="BC8" s="95"/>
+      <c r="BD8" s="95"/>
+      <c r="BE8" s="95"/>
+      <c r="BF8" s="95"/>
+      <c r="BG8" s="95"/>
+      <c r="BH8" s="96"/>
       <c r="BI8" s="10"/>
     </row>
     <row r="9" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="128"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="128"/>
-      <c r="AM9" s="129"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="130" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="52"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="BB9" s="131"/>
-      <c r="BC9" s="131"/>
-      <c r="BD9" s="131"/>
-      <c r="BE9" s="131"/>
-      <c r="BF9" s="131"/>
-      <c r="BG9" s="131"/>
-      <c r="BH9" s="132"/>
+      <c r="BB9" s="104"/>
+      <c r="BC9" s="104"/>
+      <c r="BD9" s="104"/>
+      <c r="BE9" s="104"/>
+      <c r="BF9" s="104"/>
+      <c r="BG9" s="104"/>
+      <c r="BH9" s="105"/>
       <c r="BI9" s="10"/>
     </row>
     <row r="10" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A10" s="109">
-        <v>1</v>
-      </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="124" t="s">
+      <c r="A10" s="59">
+        <v>2</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="126" t="s">
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="120"/>
-      <c r="AH10" s="120"/>
-      <c r="AI10" s="120"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="120"/>
-      <c r="AM10" s="121"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="86" t="s">
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="88"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="88"/>
-      <c r="AX10" s="86"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="88"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="77"/>
-      <c r="BH10" s="78"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY10" s="48"/>
+      <c r="AZ10" s="49"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="95"/>
+      <c r="BC10" s="95"/>
+      <c r="BD10" s="95"/>
+      <c r="BE10" s="95"/>
+      <c r="BF10" s="95"/>
+      <c r="BG10" s="95"/>
+      <c r="BH10" s="96"/>
       <c r="BI10" s="10"/>
     </row>
     <row r="11" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="128"/>
-      <c r="AI11" s="128"/>
-      <c r="AJ11" s="128"/>
-      <c r="AK11" s="128"/>
-      <c r="AL11" s="128"/>
-      <c r="AM11" s="129"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="91"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="91"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="93"/>
-      <c r="BF11" s="93"/>
-      <c r="BG11" s="93"/>
-      <c r="BH11" s="94"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="52"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="51"/>
+      <c r="AZ11" s="52"/>
+      <c r="BA11" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB11" s="104"/>
+      <c r="BC11" s="104"/>
+      <c r="BD11" s="104"/>
+      <c r="BE11" s="104"/>
+      <c r="BF11" s="104"/>
+      <c r="BG11" s="104"/>
+      <c r="BH11" s="105"/>
       <c r="BI11" s="10"/>
     </row>
     <row r="12" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A12" s="109">
-        <v>1</v>
-      </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="124" t="s">
+      <c r="A12" s="59">
+        <v>3</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="126" t="s">
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="120"/>
-      <c r="AJ12" s="120"/>
-      <c r="AK12" s="120"/>
-      <c r="AL12" s="120"/>
-      <c r="AM12" s="121"/>
-      <c r="AN12" s="86"/>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="88"/>
-      <c r="AR12" s="86" t="s">
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AS12" s="87"/>
-      <c r="AT12" s="88"/>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="88"/>
-      <c r="AX12" s="86"/>
-      <c r="AY12" s="87"/>
-      <c r="AZ12" s="88"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="77"/>
-      <c r="BC12" s="77"/>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="77"/>
-      <c r="BF12" s="77"/>
-      <c r="BG12" s="77"/>
-      <c r="BH12" s="78"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="47"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="96"/>
       <c r="BI12" s="10"/>
     </row>
     <row r="13" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="128"/>
-      <c r="AI13" s="128"/>
-      <c r="AJ13" s="128"/>
-      <c r="AK13" s="128"/>
-      <c r="AL13" s="128"/>
-      <c r="AM13" s="129"/>
-      <c r="AN13" s="89"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="89"/>
-      <c r="AS13" s="90"/>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="89"/>
-      <c r="AV13" s="90"/>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="91"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="93"/>
-      <c r="BE13" s="93"/>
-      <c r="BF13" s="93"/>
-      <c r="BG13" s="93"/>
-      <c r="BH13" s="94"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB13" s="104"/>
+      <c r="BC13" s="104"/>
+      <c r="BD13" s="104"/>
+      <c r="BE13" s="104"/>
+      <c r="BF13" s="104"/>
+      <c r="BG13" s="104"/>
+      <c r="BH13" s="105"/>
       <c r="BI13" s="10"/>
     </row>
     <row r="14" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="109">
-        <v>1</v>
-      </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="124" t="s">
+      <c r="A14" s="59">
+        <v>4</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="126" t="s">
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="120"/>
-      <c r="AK14" s="120"/>
-      <c r="AL14" s="120"/>
-      <c r="AM14" s="121"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="87"/>
-      <c r="AZ14" s="88"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="77"/>
-      <c r="BC14" s="77"/>
-      <c r="BD14" s="77"/>
-      <c r="BE14" s="77"/>
-      <c r="BF14" s="77"/>
-      <c r="BG14" s="77"/>
-      <c r="BH14" s="78"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="47"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="95"/>
+      <c r="BC14" s="95"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="95"/>
+      <c r="BF14" s="95"/>
+      <c r="BG14" s="95"/>
+      <c r="BH14" s="96"/>
       <c r="BI14" s="10"/>
     </row>
     <row r="15" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A15" s="111"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="122"/>
-      <c r="AB15" s="122"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="128"/>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="128"/>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="128"/>
-      <c r="AM15" s="129"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="89"/>
-      <c r="AS15" s="90"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="89"/>
-      <c r="AY15" s="90"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="92"/>
-      <c r="BB15" s="93"/>
-      <c r="BC15" s="93"/>
-      <c r="BD15" s="93"/>
-      <c r="BE15" s="93"/>
-      <c r="BF15" s="93"/>
-      <c r="BG15" s="93"/>
-      <c r="BH15" s="94"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="52"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB15" s="104"/>
+      <c r="BC15" s="104"/>
+      <c r="BD15" s="104"/>
+      <c r="BE15" s="104"/>
+      <c r="BF15" s="104"/>
+      <c r="BG15" s="104"/>
+      <c r="BH15" s="105"/>
       <c r="BI15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AN14:AQ15"/>
-    <mergeCell ref="AR14:AT15"/>
-    <mergeCell ref="AU14:AW15"/>
-    <mergeCell ref="AX14:AZ15"/>
-    <mergeCell ref="AC12:AM13"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="AN12:AQ13"/>
-    <mergeCell ref="AC14:AM15"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="H10:L11"/>
-    <mergeCell ref="M10:S11"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="M14:S15"/>
-    <mergeCell ref="T14:AB15"/>
-    <mergeCell ref="AU10:AW11"/>
-    <mergeCell ref="AX10:AZ11"/>
-    <mergeCell ref="AN10:AQ11"/>
-    <mergeCell ref="T12:AB13"/>
-    <mergeCell ref="T10:AB11"/>
-    <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BH2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="BA8:BH8"/>
+    <mergeCell ref="AR6:AT7"/>
+    <mergeCell ref="AU6:AW7"/>
+    <mergeCell ref="AX6:AZ7"/>
+    <mergeCell ref="AN6:AQ7"/>
+    <mergeCell ref="BA6:BH7"/>
+    <mergeCell ref="AR8:AT9"/>
+    <mergeCell ref="AU8:AW9"/>
+    <mergeCell ref="AX8:AZ9"/>
+    <mergeCell ref="AN8:AQ9"/>
+    <mergeCell ref="BA9:BH9"/>
+    <mergeCell ref="AC8:AM9"/>
+    <mergeCell ref="BA10:BH10"/>
+    <mergeCell ref="BA11:BH11"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="BA14:BH14"/>
     <mergeCell ref="BA15:BH15"/>
     <mergeCell ref="A3:G4"/>
     <mergeCell ref="H3:AI4"/>
@@ -5633,49 +5677,31 @@
     <mergeCell ref="H12:L13"/>
     <mergeCell ref="M12:S13"/>
     <mergeCell ref="AR10:AT11"/>
-    <mergeCell ref="BA10:BH10"/>
-    <mergeCell ref="BA11:BH11"/>
-    <mergeCell ref="BA12:BH12"/>
-    <mergeCell ref="BA13:BH13"/>
-    <mergeCell ref="BA14:BH14"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="BA8:BH8"/>
-    <mergeCell ref="AR6:AT7"/>
-    <mergeCell ref="AU6:AW7"/>
-    <mergeCell ref="AX6:AZ7"/>
-    <mergeCell ref="AN6:AQ7"/>
-    <mergeCell ref="BA6:BH7"/>
-    <mergeCell ref="AR8:AT9"/>
-    <mergeCell ref="AU8:AW9"/>
-    <mergeCell ref="AX8:AZ9"/>
-    <mergeCell ref="AN8:AQ9"/>
-    <mergeCell ref="BA9:BH9"/>
-    <mergeCell ref="AC8:AM9"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA3:BH3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BA4:BH4"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BH2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="T14:AB15"/>
+    <mergeCell ref="AU10:AW11"/>
+    <mergeCell ref="AX10:AZ11"/>
+    <mergeCell ref="AN10:AQ11"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="T10:AB11"/>
+    <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="H10:L11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="AN14:AQ15"/>
+    <mergeCell ref="AR14:AT15"/>
+    <mergeCell ref="AU14:AW15"/>
+    <mergeCell ref="AX14:AZ15"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AN12:AQ13"/>
+    <mergeCell ref="AC14:AM15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR12 AR14">
@@ -5684,6 +5710,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="BA9:BH9" location="Evidance!A6" display="1. エビデンス 1"/>
+    <hyperlink ref="BA11:BH11" location="Evidance!A6" display="1. エビデンス 1"/>
+    <hyperlink ref="BA13:BH13" location="Evidance!A6" display="1. エビデンス 1"/>
+    <hyperlink ref="BA15:BH15" location="Evidance!A6" display="1. エビデンス 1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="15" orientation="portrait" r:id="rId1"/>
